--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://learnermanipal-my.sharepoint.com/personal/rishabh_jain1_learner_manipal_edu/Documents/Coding/Mini-Projects/Auto-Mailer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\OneDrive - Manipal Academy of Higher Education\Coding\Mini-Projects\Auto-Mailer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC1048A569186A965BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9E6F865-CBB7-4611-844C-39C5E2B916E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBC7F7-EC0D-4710-BA1F-977DEF828F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>Rishabh</t>
+  </si>
+  <si>
+    <t>hrishikesh18101@gmail.com</t>
+  </si>
+  <si>
+    <t>Hrishi</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>swapnil.strange0707@gmail.com</t>
+  </si>
+  <si>
+    <t>Biswas</t>
+  </si>
+  <si>
+    <t>rishavbiswas33@gmail.com</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>abhinav20prasad@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -111,10 +135,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,10 +437,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{C080B3B4-62D8-486B-AEB1-C2EE0E94E44B}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{2780E07B-DDD4-4B10-9B44-B4F55F5F156A}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{875213D2-31D0-43E4-9A85-AF2669BF50C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\OneDrive - Manipal Academy of Higher Education\Coding\Mini-Projects\Auto-Mailer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://learnermanipal-my.sharepoint.com/personal/rishabh_jain1_learner_manipal_edu/Documents/Coding/Mini-Projects/Auto-Mailer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBC7F7-EC0D-4710-BA1F-977DEF828F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0DCBC7F7-EC0D-4710-BA1F-977DEF828F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B33DB9E-96DB-44EB-AB27-275656986BCC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -43,30 +43,6 @@
   </si>
   <si>
     <t>Rishabh</t>
-  </si>
-  <si>
-    <t>hrishikesh18101@gmail.com</t>
-  </si>
-  <si>
-    <t>Hrishi</t>
-  </si>
-  <si>
-    <t>Swap</t>
-  </si>
-  <si>
-    <t>swapnil.strange0707@gmail.com</t>
-  </si>
-  <si>
-    <t>Biswas</t>
-  </si>
-  <si>
-    <t>rishavbiswas33@gmail.com</t>
-  </si>
-  <si>
-    <t>Bobby</t>
-  </si>
-  <si>
-    <t>abhinav20prasad@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -400,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,43 +413,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{C080B3B4-62D8-486B-AEB1-C2EE0E94E44B}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{2780E07B-DDD4-4B10-9B44-B4F55F5F156A}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{875213D2-31D0-43E4-9A85-AF2669BF50C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://learnermanipal-my.sharepoint.com/personal/rishabh_jain1_learner_manipal_edu/Documents/Coding/Mini-Projects/Auto-Mailer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0DCBC7F7-EC0D-4710-BA1F-977DEF828F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B33DB9E-96DB-44EB-AB27-275656986BCC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0DCBC7F7-EC0D-4710-BA1F-977DEF828F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D543715-7C11-4F25-842E-783090C4E7CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>rishabh.jain1@learner.manipal.edu</t>
   </si>
   <si>
-    <t>sjrj0604@gamil.com</t>
-  </si>
-  <si>
     <t>Rishabh</t>
+  </si>
+  <si>
+    <t>sjrj0604@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://learnermanipal-my.sharepoint.com/personal/rishabh_jain1_learner_manipal_edu/Documents/Coding/Mini-Projects/Auto-Mailer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\OneDrive - Manipal Academy of Higher Education\Coding\Mini-Projects\Auto-Mailer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0DCBC7F7-EC0D-4710-BA1F-977DEF828F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D543715-7C11-4F25-842E-783090C4E7CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D8414-7743-41F4-8B23-06A01A43A0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\OneDrive - Manipal Academy of Higher Education\Coding\Mini-Projects\Auto-Mailer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://learnermanipal-my.sharepoint.com/personal/rishabh_jain1_learner_manipal_edu/Documents/Coding/Mini-Projects/Auto-Mailer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D8414-7743-41F4-8B23-06A01A43A0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{615D8414-7743-41F4-8B23-06A01A43A0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E9A8F21-0318-4791-ABC3-53E73CC64C07}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>sjrj0604@gmail.com</t>
+  </si>
+  <si>
+    <t>prishas332@gmail.com</t>
+  </si>
+  <si>
+    <t>Prisha</t>
   </si>
 </sst>
 </file>
@@ -379,7 +385,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,6 +419,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
     </row>
@@ -420,6 +434,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{C080B3B4-62D8-486B-AEB1-C2EE0E94E44B}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{2780E07B-DDD4-4B10-9B44-B4F55F5F156A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{CA344E8F-8E4A-4B3A-AD3E-2AEDA58B1884}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
